--- a/natmiOut/OldD2/LR-pairs_lrc2p/Psen1-Notch4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Psen1-Notch4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H2">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I2">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J2">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N2">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O2">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P2">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q2">
-        <v>906.5685723976979</v>
+        <v>909.2152961743672</v>
       </c>
       <c r="R2">
-        <v>906.5685723976979</v>
+        <v>3636.861184697469</v>
       </c>
       <c r="S2">
-        <v>0.06941913367828639</v>
+        <v>0.06704842161579819</v>
       </c>
       <c r="T2">
-        <v>0.06941913367828639</v>
+        <v>0.04044660931017924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H3">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I3">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J3">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N3">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O3">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P3">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q3">
-        <v>26.92248831795774</v>
+        <v>28.37015286756584</v>
       </c>
       <c r="R3">
-        <v>26.92248831795774</v>
+        <v>170.220917205395</v>
       </c>
       <c r="S3">
-        <v>0.002061549310664321</v>
+        <v>0.002092105113907373</v>
       </c>
       <c r="T3">
-        <v>0.002061549310664321</v>
+        <v>0.001893077185237604</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H4">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I4">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J4">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N4">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O4">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P4">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q4">
-        <v>8.630631997516627</v>
+        <v>16.2980576105305</v>
       </c>
       <c r="R4">
-        <v>8.630631997516627</v>
+        <v>97.78834566318301</v>
       </c>
       <c r="S4">
-        <v>0.0006608777478124103</v>
+        <v>0.001201870495126218</v>
       </c>
       <c r="T4">
-        <v>0.0006608777478124103</v>
+        <v>0.001087533125754025</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H5">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I5">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J5">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N5">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O5">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P5">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q5">
-        <v>20.18748372101472</v>
+        <v>22.21846655224933</v>
       </c>
       <c r="R5">
-        <v>20.18748372101472</v>
+        <v>133.310799313496</v>
       </c>
       <c r="S5">
-        <v>0.001545826398273356</v>
+        <v>0.001638460240737118</v>
       </c>
       <c r="T5">
-        <v>0.001545826398273356</v>
+        <v>0.001482588843189299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H6">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I6">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J6">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N6">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O6">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P6">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q6">
-        <v>544.721967010854</v>
+        <v>566.2394725595335</v>
       </c>
       <c r="R6">
-        <v>544.721967010854</v>
+        <v>3397.436835357201</v>
       </c>
       <c r="S6">
-        <v>0.04171127060517282</v>
+        <v>0.04175629584260521</v>
       </c>
       <c r="T6">
-        <v>0.04171127060517282</v>
+        <v>0.03778390028024545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H7">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I7">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J7">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N7">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O7">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P7">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q7">
-        <v>15.31511213103846</v>
+        <v>18.3411180362025</v>
       </c>
       <c r="R7">
-        <v>15.31511213103846</v>
+        <v>73.36447214480999</v>
       </c>
       <c r="S7">
-        <v>0.001172731824919375</v>
+        <v>0.00135253225519931</v>
       </c>
       <c r="T7">
-        <v>0.001172731824919375</v>
+        <v>0.0008159080018159933</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H8">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I8">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J8">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N8">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O8">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P8">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q8">
-        <v>1245.598390842476</v>
+        <v>1337.14844056066</v>
       </c>
       <c r="R8">
-        <v>1245.598390842476</v>
+        <v>8022.89064336396</v>
       </c>
       <c r="S8">
-        <v>0.09537983538813863</v>
+        <v>0.09860556986100751</v>
       </c>
       <c r="T8">
-        <v>0.09537983538813863</v>
+        <v>0.08922494065921519</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H9">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I9">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J9">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N9">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O9">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P9">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q9">
-        <v>36.99070224509437</v>
+        <v>41.72290746201666</v>
       </c>
       <c r="R9">
-        <v>36.99070224509437</v>
+        <v>375.50616715815</v>
       </c>
       <c r="S9">
-        <v>0.002832507746451431</v>
+        <v>0.003076779616797974</v>
       </c>
       <c r="T9">
-        <v>0.002832507746451431</v>
+        <v>0.004176115189799844</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H10">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I10">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J10">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N10">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O10">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P10">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q10">
-        <v>11.85823296259635</v>
+        <v>23.96893498139</v>
       </c>
       <c r="R10">
-        <v>11.85823296259635</v>
+        <v>215.72041483251</v>
       </c>
       <c r="S10">
-        <v>0.0009080264684684192</v>
+        <v>0.00176754533835481</v>
       </c>
       <c r="T10">
-        <v>0.0009080264684684192</v>
+        <v>0.002399090560748507</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H11">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I11">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J11">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N11">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O11">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P11">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q11">
-        <v>27.73700523452921</v>
+        <v>32.67585579234666</v>
       </c>
       <c r="R11">
-        <v>27.73700523452921</v>
+        <v>294.08270213112</v>
       </c>
       <c r="S11">
-        <v>0.002123919726357372</v>
+        <v>0.002409621313060402</v>
       </c>
       <c r="T11">
-        <v>0.002123919726357372</v>
+        <v>0.00327058074364438</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H12">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I12">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J12">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N12">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O12">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P12">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q12">
-        <v>748.431862987214</v>
+        <v>832.7469092333299</v>
       </c>
       <c r="R12">
-        <v>748.431862987214</v>
+        <v>7494.72218309997</v>
       </c>
       <c r="S12">
-        <v>0.05731005147066387</v>
+        <v>0.06140940006669372</v>
       </c>
       <c r="T12">
-        <v>0.05731005147066387</v>
+        <v>0.08335102293803784</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H13">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I13">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J13">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N13">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O13">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P13">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q13">
-        <v>21.04251085556607</v>
+        <v>26.97358643595</v>
       </c>
       <c r="R13">
-        <v>21.04251085556607</v>
+        <v>161.8415186157</v>
       </c>
       <c r="S13">
-        <v>0.001611298823370774</v>
+        <v>0.001989117872804588</v>
       </c>
       <c r="T13">
-        <v>0.001611298823370774</v>
+        <v>0.001799887414223604</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H14">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I14">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J14">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N14">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O14">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P14">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q14">
-        <v>1957.936842240852</v>
+        <v>1960.113765418346</v>
       </c>
       <c r="R14">
-        <v>1957.936842240852</v>
+        <v>11760.68259251007</v>
       </c>
       <c r="S14">
-        <v>0.1499260878034656</v>
+        <v>0.1445450100891121</v>
       </c>
       <c r="T14">
-        <v>0.1499260878034656</v>
+        <v>0.130794030864241</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H15">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I15">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J15">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N15">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O15">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P15">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q15">
-        <v>58.14511264505232</v>
+        <v>61.16123144509223</v>
       </c>
       <c r="R15">
-        <v>58.14511264505232</v>
+        <v>550.4510830058301</v>
       </c>
       <c r="S15">
-        <v>0.004452375110214175</v>
+        <v>0.004510223320842067</v>
       </c>
       <c r="T15">
-        <v>0.004452375110214175</v>
+        <v>0.00612172936167589</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H16">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I16">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J16">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N16">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O16">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P16">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q16">
-        <v>18.63977295734841</v>
+        <v>35.13584428946467</v>
       </c>
       <c r="R16">
-        <v>18.63977295734841</v>
+        <v>316.222598605182</v>
       </c>
       <c r="S16">
-        <v>0.001427312759405295</v>
+        <v>0.002591028672372085</v>
       </c>
       <c r="T16">
-        <v>0.001427312759405295</v>
+        <v>0.00351680508308908</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H17">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I17">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J17">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N17">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O17">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P17">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q17">
-        <v>43.59936946079441</v>
+        <v>47.89924049759822</v>
       </c>
       <c r="R17">
-        <v>43.59936946079441</v>
+        <v>431.093164478384</v>
       </c>
       <c r="S17">
-        <v>0.003338556562669092</v>
+        <v>0.003532242017344563</v>
       </c>
       <c r="T17">
-        <v>0.003338556562669092</v>
+        <v>0.004794314634089195</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H18">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I18">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J18">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N18">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O18">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P18">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q18">
-        <v>1176.448467839216</v>
+        <v>1220.716137703773</v>
       </c>
       <c r="R18">
-        <v>1176.448467839216</v>
+        <v>10986.44523933395</v>
       </c>
       <c r="S18">
-        <v>0.09008478337005402</v>
+        <v>0.09001948231442301</v>
       </c>
       <c r="T18">
-        <v>0.09008478337005402</v>
+        <v>0.1221835081780785</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H19">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I19">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J19">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N19">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O19">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P19">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q19">
-        <v>33.07639730451146</v>
+        <v>39.54033559179</v>
       </c>
       <c r="R19">
-        <v>33.07639730451146</v>
+        <v>237.24201355074</v>
       </c>
       <c r="S19">
-        <v>0.002532775695064259</v>
+        <v>0.00291582984002071</v>
       </c>
       <c r="T19">
-        <v>0.002532775695064259</v>
+        <v>0.002638438627908544</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H20">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I20">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J20">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N20">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O20">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P20">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q20">
-        <v>2101.44628548872</v>
+        <v>2111.375889177074</v>
       </c>
       <c r="R20">
-        <v>2101.44628548872</v>
+        <v>12668.25533506245</v>
       </c>
       <c r="S20">
-        <v>0.1609151089633011</v>
+        <v>0.1556995591722055</v>
       </c>
       <c r="T20">
-        <v>0.1609151089633011</v>
+        <v>0.1408874158669566</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H21">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I21">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J21">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N21">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O21">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P21">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q21">
-        <v>62.40693180247002</v>
+        <v>65.88104818394834</v>
       </c>
       <c r="R21">
-        <v>62.40693180247002</v>
+        <v>592.929433655535</v>
       </c>
       <c r="S21">
-        <v>0.004778717543439046</v>
+        <v>0.004858277586963253</v>
       </c>
       <c r="T21">
-        <v>0.004778717543439046</v>
+        <v>0.006594143667753491</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H22">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I22">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J22">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N22">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O22">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P22">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q22">
-        <v>20.00599855853492</v>
+        <v>37.847279983171</v>
       </c>
       <c r="R22">
-        <v>20.00599855853492</v>
+        <v>340.625519848539</v>
       </c>
       <c r="S22">
-        <v>0.001531929443163286</v>
+        <v>0.002790978546005625</v>
       </c>
       <c r="T22">
-        <v>0.001531929443163286</v>
+        <v>0.003788197190577295</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H23">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I23">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J23">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N23">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O23">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P23">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q23">
-        <v>46.79504007809361</v>
+        <v>51.59562841748533</v>
       </c>
       <c r="R23">
-        <v>46.79504007809361</v>
+        <v>464.360655757368</v>
       </c>
       <c r="S23">
-        <v>0.00358326026465971</v>
+        <v>0.003804825394187141</v>
       </c>
       <c r="T23">
-        <v>0.00358326026465971</v>
+        <v>0.005164292247794237</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H24">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I24">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J24">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N24">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O24">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P24">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q24">
-        <v>1262.677737847837</v>
+        <v>1314.918892030237</v>
       </c>
       <c r="R24">
-        <v>1262.677737847837</v>
+        <v>11834.27002827213</v>
       </c>
       <c r="S24">
-        <v>0.0966876608621314</v>
+        <v>0.09696629240002778</v>
       </c>
       <c r="T24">
-        <v>0.0966876608621314</v>
+        <v>0.131612418510415</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H25">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I25">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J25">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N25">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O25">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P25">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q25">
-        <v>35.50077344341849</v>
+        <v>42.591666203955</v>
       </c>
       <c r="R25">
-        <v>35.50077344341849</v>
+        <v>255.54999722373</v>
       </c>
       <c r="S25">
-        <v>0.00271841867497489</v>
+        <v>0.003140844643703022</v>
       </c>
       <c r="T25">
-        <v>0.00271841867497489</v>
+        <v>0.002842047131305455</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H26">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I26">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J26">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N26">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O26">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P26">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q26">
-        <v>558.6264046677114</v>
+        <v>566.3481120733194</v>
       </c>
       <c r="R26">
-        <v>558.6264046677114</v>
+        <v>3398.088672439916</v>
       </c>
       <c r="S26">
-        <v>0.04277598214030792</v>
+        <v>0.04176430726515287</v>
       </c>
       <c r="T26">
-        <v>0.04277598214030792</v>
+        <v>0.037791149553308</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H27">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I27">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J27">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N27">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O27">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P27">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q27">
-        <v>16.58960316040114</v>
+        <v>17.67170282262389</v>
       </c>
       <c r="R27">
-        <v>16.58960316040114</v>
+        <v>159.045325403615</v>
       </c>
       <c r="S27">
-        <v>0.001270324070925772</v>
+        <v>0.001303167452753839</v>
       </c>
       <c r="T27">
-        <v>0.001270324070925772</v>
+        <v>0.001768790122173843</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H28">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I28">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J28">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N28">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O28">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P28">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q28">
-        <v>5.318184492135463</v>
+        <v>10.15202251548567</v>
       </c>
       <c r="R28">
-        <v>5.318184492135463</v>
+        <v>91.36820263937101</v>
       </c>
       <c r="S28">
-        <v>0.0004072320301253351</v>
+        <v>0.0007486423608746904</v>
       </c>
       <c r="T28">
-        <v>0.0004072320301253351</v>
+        <v>0.001016132815593109</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H29">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I29">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J29">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N29">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O29">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P29">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q29">
-        <v>12.43950186860354</v>
+        <v>13.83983159761689</v>
       </c>
       <c r="R29">
-        <v>12.43950186860354</v>
+        <v>124.558484378552</v>
       </c>
       <c r="S29">
-        <v>0.0009525362663124184</v>
+        <v>0.001020593106993555</v>
       </c>
       <c r="T29">
-        <v>0.0009525362663124184</v>
+        <v>0.001385251759161228</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H30">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I30">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J30">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N30">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O30">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P30">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q30">
-        <v>335.656985295655</v>
+        <v>352.7092621679597</v>
       </c>
       <c r="R30">
-        <v>335.656985295655</v>
+        <v>3174.383359511637</v>
       </c>
       <c r="S30">
-        <v>0.0257024320517344</v>
+        <v>0.02600990042417762</v>
       </c>
       <c r="T30">
-        <v>0.0257024320517344</v>
+        <v>0.03530325657826332</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H31">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I31">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J31">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N31">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O31">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P31">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q31">
-        <v>9.437152673644341</v>
+        <v>11.424640144995</v>
       </c>
       <c r="R31">
-        <v>9.437152673644341</v>
+        <v>68.54784086996999</v>
       </c>
       <c r="S31">
-        <v>0.0007226358633428599</v>
+        <v>0.0008424892239202891</v>
       </c>
       <c r="T31">
-        <v>0.0007226358633428599</v>
+        <v>0.000762340820262747</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H32">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I32">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J32">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>55.8739169059249</v>
+        <v>55.873922</v>
       </c>
       <c r="N32">
-        <v>55.8739169059249</v>
+        <v>111.747844</v>
       </c>
       <c r="O32">
-        <v>0.5955074734654491</v>
+        <v>0.5825754174893317</v>
       </c>
       <c r="P32">
-        <v>0.5955074734654491</v>
+        <v>0.4843347495294592</v>
       </c>
       <c r="Q32">
-        <v>1006.762389449746</v>
+        <v>1015.857409118968</v>
       </c>
       <c r="R32">
-        <v>1006.762389449746</v>
+        <v>4063.429636475872</v>
       </c>
       <c r="S32">
-        <v>0.07709132549194955</v>
+        <v>0.07491254948605557</v>
       </c>
       <c r="T32">
-        <v>0.07709132549194955</v>
+        <v>0.04519060327555912</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H33">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I33">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J33">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>1.659295193964</v>
+        <v>1.743428333333333</v>
       </c>
       <c r="N33">
-        <v>1.659295193964</v>
+        <v>5.230285</v>
       </c>
       <c r="O33">
-        <v>0.01768486520024306</v>
+        <v>0.01817804179120264</v>
       </c>
       <c r="P33">
-        <v>0.01768486520024306</v>
+        <v>0.02266897225724272</v>
       </c>
       <c r="Q33">
-        <v>29.89795752265463</v>
+        <v>31.69769592484667</v>
       </c>
       <c r="R33">
-        <v>29.89795752265463</v>
+        <v>190.18617554908</v>
       </c>
       <c r="S33">
-        <v>0.002289391418548318</v>
+        <v>0.002337488699938134</v>
       </c>
       <c r="T33">
-        <v>0.002289391418548318</v>
+        <v>0.002115116730602048</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H34">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I34">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J34">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.531925802148053</v>
+        <v>1.001563</v>
       </c>
       <c r="N34">
-        <v>0.531925802148053</v>
+        <v>3.004689</v>
       </c>
       <c r="O34">
-        <v>0.005669296302273008</v>
+        <v>0.0104429036298341</v>
       </c>
       <c r="P34">
-        <v>0.005669296302273008</v>
+        <v>0.01302284896189067</v>
       </c>
       <c r="Q34">
-        <v>9.58448809812651</v>
+        <v>18.209661284372</v>
       </c>
       <c r="R34">
-        <v>9.58448809812651</v>
+        <v>109.257967706232</v>
       </c>
       <c r="S34">
-        <v>0.0007339178532982626</v>
+        <v>0.001342838217100677</v>
       </c>
       <c r="T34">
-        <v>0.0007339178532982626</v>
+        <v>0.00121509018612866</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H35">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I35">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J35">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.24420129079091</v>
+        <v>1.365389333333333</v>
       </c>
       <c r="N35">
-        <v>1.24420129079091</v>
+        <v>4.096168</v>
       </c>
       <c r="O35">
-        <v>0.01326077010868691</v>
+        <v>0.014236377766754</v>
       </c>
       <c r="P35">
-        <v>0.01326077010868691</v>
+        <v>0.01775351032553778</v>
       </c>
       <c r="Q35">
-        <v>22.41860126939278</v>
+        <v>24.82447662433066</v>
       </c>
       <c r="R35">
-        <v>22.41860126939278</v>
+        <v>148.946859745984</v>
       </c>
       <c r="S35">
-        <v>0.001716670890414964</v>
+        <v>0.001830635694431219</v>
       </c>
       <c r="T35">
-        <v>0.001716670890414964</v>
+        <v>0.001656482097659445</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H36">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I36">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J36">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>33.5724741054058</v>
+        <v>34.797061</v>
       </c>
       <c r="N36">
-        <v>33.5724741054058</v>
+        <v>104.391183</v>
       </c>
       <c r="O36">
-        <v>0.3578173920785995</v>
+        <v>0.3628152743506486</v>
       </c>
       <c r="P36">
-        <v>0.3578173920785995</v>
+        <v>0.4524496908538919</v>
       </c>
       <c r="Q36">
-        <v>604.9245537413533</v>
+        <v>632.653856523884</v>
       </c>
       <c r="R36">
-        <v>604.9245537413533</v>
+        <v>3795.923139143304</v>
       </c>
       <c r="S36">
-        <v>0.04632119371884304</v>
+        <v>0.04665390330272134</v>
       </c>
       <c r="T36">
-        <v>0.04632119371884304</v>
+        <v>0.04221558436885182</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H37">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I37">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J37">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.943905765838942</v>
+        <v>1.127115</v>
       </c>
       <c r="N37">
-        <v>0.943905765838942</v>
+        <v>2.25423</v>
       </c>
       <c r="O37">
-        <v>0.01006020284474834</v>
+        <v>0.01175198497222887</v>
       </c>
       <c r="P37">
-        <v>0.01006020284474834</v>
+        <v>0.00977022807197777</v>
       </c>
       <c r="Q37">
-        <v>17.00773593215973</v>
+        <v>20.49235283106</v>
       </c>
       <c r="R37">
-        <v>17.00773593215973</v>
+        <v>81.96941132423999</v>
       </c>
       <c r="S37">
-        <v>0.001302341963076184</v>
+        <v>0.001511171136580953</v>
       </c>
       <c r="T37">
-        <v>0.001302341963076184</v>
+        <v>0.0009116060764614271</v>
       </c>
     </row>
   </sheetData>
